--- a/config_7.27/shoping_config.xlsx
+++ b/config_7.27/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -13397,11 +13397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO698"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O684" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W633" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R703" activeCellId="1" sqref="Q704 R703"/>
+      <selection pane="bottomRight" activeCell="AA635" sqref="AA635:AA646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54353,10 +54353,10 @@
         <v>99999999</v>
       </c>
       <c r="Z635" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA635" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA635" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB635" s="34">
         <v>80</v>
@@ -54421,10 +54421,10 @@
         <v>99999999</v>
       </c>
       <c r="Z636" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA636" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA636" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB636" s="34">
         <v>80</v>
@@ -54489,10 +54489,10 @@
         <v>99999999</v>
       </c>
       <c r="Z637" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA637" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA637" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB637" s="34">
         <v>80</v>
@@ -54557,10 +54557,10 @@
         <v>99999999</v>
       </c>
       <c r="Z638" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA638" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA638" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB638" s="34">
         <v>81</v>
@@ -54625,10 +54625,10 @@
         <v>99999999</v>
       </c>
       <c r="Z639" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA639" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA639" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB639" s="34">
         <v>81</v>
@@ -54693,10 +54693,10 @@
         <v>99999999</v>
       </c>
       <c r="Z640" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA640" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA640" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB640" s="34">
         <v>81</v>
@@ -54761,10 +54761,10 @@
         <v>99999999</v>
       </c>
       <c r="Z641" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA641" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA641" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB641" s="34">
         <v>82</v>
@@ -54829,10 +54829,10 @@
         <v>99999999</v>
       </c>
       <c r="Z642" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA642" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA642" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB642" s="34">
         <v>82</v>
@@ -54897,10 +54897,10 @@
         <v>99999999</v>
       </c>
       <c r="Z643" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA643" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA643" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB643" s="34">
         <v>82</v>
@@ -54965,10 +54965,10 @@
         <v>99999999</v>
       </c>
       <c r="Z644" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA644" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA644" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB644" s="34">
         <v>83</v>
@@ -55033,10 +55033,10 @@
         <v>99999999</v>
       </c>
       <c r="Z645" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA645" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA645" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB645" s="34">
         <v>83</v>
@@ -55101,10 +55101,10 @@
         <v>99999999</v>
       </c>
       <c r="Z646" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AA646" s="34">
         <v>1627919999</v>
-      </c>
-      <c r="AA646" s="34">
-        <v>1627344000</v>
       </c>
       <c r="AB646" s="34">
         <v>83</v>
@@ -58572,7 +58572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>

--- a/config_7.27/shoping_config.xlsx
+++ b/config_7.27/shoping_config.xlsx
@@ -6772,10 +6772,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6816,13 +6816,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6836,9 +6829,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6846,6 +6838,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6861,7 +6869,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6875,11 +6883,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6895,14 +6902,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6929,6 +6928,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6937,34 +6959,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7081,42 +7081,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7129,91 +7093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7231,7 +7117,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7286,17 +7286,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7334,6 +7330,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7348,26 +7368,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7376,10 +7376,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7388,37 +7388,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7427,94 +7424,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13720,11 +13720,11 @@
   <dimension ref="A1:AO694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H661" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H616" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D676" sqref="D676"/>
+      <selection pane="bottomRight" activeCell="I638" sqref="I638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54629,819 +54629,891 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:40">
-      <c r="A635" s="21">
+    <row r="635" s="34" customFormat="1" spans="1:40">
+      <c r="A635" s="34">
         <v>634</v>
       </c>
-      <c r="B635" s="36">
+      <c r="B635" s="34">
         <v>10551</v>
       </c>
-      <c r="F635" s="21">
-        <v>0</v>
-      </c>
-      <c r="G635" s="36" t="s">
+      <c r="C635" s="34"/>
+      <c r="D635" s="34"/>
+      <c r="E635" s="34"/>
+      <c r="F635" s="34">
+        <v>1</v>
+      </c>
+      <c r="G635" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J635" s="33" t="s">
+      <c r="H635" s="34"/>
+      <c r="I635" s="34"/>
+      <c r="J635" s="34" t="s">
         <v>1539</v>
       </c>
-      <c r="K635" s="36" t="s">
+      <c r="K635" s="34" t="s">
         <v>1618</v>
       </c>
-      <c r="M635" s="33">
+      <c r="L635" s="34"/>
+      <c r="M635" s="34">
         <v>-31</v>
       </c>
-      <c r="N635" s="33">
-        <v>0</v>
-      </c>
-      <c r="O635" s="33">
-        <v>0</v>
-      </c>
-      <c r="P635" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q635" s="36">
+      <c r="N635" s="34">
+        <v>0</v>
+      </c>
+      <c r="O635" s="34">
+        <v>0</v>
+      </c>
+      <c r="P635" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q635" s="34">
         <v>600</v>
       </c>
-      <c r="R635" s="36" t="s">
+      <c r="R635" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S635" s="37" t="s">
+      <c r="S635" s="68" t="s">
         <v>1620</v>
       </c>
-      <c r="X635" s="33" t="s">
+      <c r="X635" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y635" s="33">
+      <c r="Y635" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z635" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA635" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB635" s="36">
+      <c r="Z635" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA635" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB635" s="34">
         <v>80</v>
       </c>
-      <c r="AI635" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ635" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM635" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN635" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:40">
-      <c r="A636" s="21">
+      <c r="AI635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN635" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" s="34" customFormat="1" spans="1:40">
+      <c r="A636" s="34">
         <v>635</v>
       </c>
-      <c r="B636" s="36">
+      <c r="B636" s="34">
         <v>10552</v>
       </c>
-      <c r="F636" s="21">
-        <v>0</v>
-      </c>
-      <c r="G636" s="36" t="s">
+      <c r="C636" s="34"/>
+      <c r="D636" s="34"/>
+      <c r="E636" s="34"/>
+      <c r="F636" s="34">
+        <v>1</v>
+      </c>
+      <c r="G636" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J636" s="33" t="s">
+      <c r="H636" s="34"/>
+      <c r="I636" s="34"/>
+      <c r="J636" s="34" t="s">
         <v>1539</v>
       </c>
-      <c r="K636" s="36" t="s">
+      <c r="K636" s="34" t="s">
         <v>1621</v>
       </c>
-      <c r="M636" s="33">
+      <c r="L636" s="34"/>
+      <c r="M636" s="34">
         <v>-31</v>
       </c>
-      <c r="N636" s="33">
-        <v>0</v>
-      </c>
-      <c r="O636" s="33">
-        <v>0</v>
-      </c>
-      <c r="P636" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q636" s="36">
+      <c r="N636" s="34">
+        <v>0</v>
+      </c>
+      <c r="O636" s="34">
+        <v>0</v>
+      </c>
+      <c r="P636" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q636" s="34">
         <v>1000</v>
       </c>
-      <c r="R636" s="36" t="s">
+      <c r="R636" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S636" s="37" t="s">
+      <c r="S636" s="68" t="s">
         <v>1622</v>
       </c>
-      <c r="X636" s="33" t="s">
+      <c r="X636" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y636" s="33">
+      <c r="Y636" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z636" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA636" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB636" s="36">
+      <c r="Z636" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA636" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB636" s="34">
         <v>80</v>
       </c>
-      <c r="AI636" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ636" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM636" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN636" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:40">
-      <c r="A637" s="21">
+      <c r="AI636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN636" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" s="34" customFormat="1" spans="1:40">
+      <c r="A637" s="34">
         <v>636</v>
       </c>
-      <c r="B637" s="36">
+      <c r="B637" s="34">
         <v>10553</v>
       </c>
-      <c r="F637" s="21">
-        <v>0</v>
-      </c>
-      <c r="G637" s="36" t="s">
+      <c r="C637" s="34"/>
+      <c r="D637" s="34"/>
+      <c r="E637" s="34"/>
+      <c r="F637" s="34">
+        <v>1</v>
+      </c>
+      <c r="G637" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J637" s="33" t="s">
+      <c r="H637" s="34"/>
+      <c r="I637" s="34"/>
+      <c r="J637" s="34" t="s">
         <v>1539</v>
       </c>
-      <c r="K637" s="36" t="s">
+      <c r="K637" s="34" t="s">
         <v>1623</v>
       </c>
-      <c r="M637" s="33">
+      <c r="L637" s="34"/>
+      <c r="M637" s="34">
         <v>-31</v>
       </c>
-      <c r="N637" s="33">
-        <v>0</v>
-      </c>
-      <c r="O637" s="33">
-        <v>0</v>
-      </c>
-      <c r="P637" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q637" s="36">
+      <c r="N637" s="34">
+        <v>0</v>
+      </c>
+      <c r="O637" s="34">
+        <v>0</v>
+      </c>
+      <c r="P637" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q637" s="34">
         <v>1800</v>
       </c>
-      <c r="R637" s="36" t="s">
+      <c r="R637" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S637" s="37" t="s">
+      <c r="S637" s="68" t="s">
         <v>1624</v>
       </c>
-      <c r="X637" s="33" t="s">
+      <c r="X637" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y637" s="33">
+      <c r="Y637" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z637" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA637" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB637" s="36">
+      <c r="Z637" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA637" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB637" s="34">
         <v>80</v>
       </c>
-      <c r="AI637" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ637" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM637" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN637" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="638" spans="1:40">
-      <c r="A638" s="21">
+      <c r="AI637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN637" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" s="34" customFormat="1" spans="1:40">
+      <c r="A638" s="34">
         <v>637</v>
       </c>
-      <c r="B638" s="36">
+      <c r="B638" s="34">
         <v>10554</v>
       </c>
-      <c r="F638" s="21">
-        <v>0</v>
-      </c>
-      <c r="G638" s="36" t="s">
+      <c r="C638" s="34"/>
+      <c r="D638" s="34"/>
+      <c r="E638" s="34"/>
+      <c r="F638" s="34">
+        <v>1</v>
+      </c>
+      <c r="G638" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J638" s="33" t="s">
+      <c r="H638" s="34"/>
+      <c r="I638" s="34"/>
+      <c r="J638" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="K638" s="36" t="s">
+      <c r="K638" s="34" t="s">
         <v>1625</v>
       </c>
-      <c r="M638" s="33">
+      <c r="L638" s="34"/>
+      <c r="M638" s="34">
         <v>-31</v>
       </c>
-      <c r="N638" s="33">
-        <v>0</v>
-      </c>
-      <c r="O638" s="33">
-        <v>0</v>
-      </c>
-      <c r="P638" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q638" s="36">
+      <c r="N638" s="34">
+        <v>0</v>
+      </c>
+      <c r="O638" s="34">
+        <v>0</v>
+      </c>
+      <c r="P638" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q638" s="34">
         <v>1800</v>
       </c>
-      <c r="R638" s="36" t="s">
+      <c r="R638" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S638" s="37" t="s">
+      <c r="S638" s="68" t="s">
         <v>1626</v>
       </c>
-      <c r="X638" s="33" t="s">
+      <c r="X638" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y638" s="33">
+      <c r="Y638" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z638" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA638" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB638" s="36">
+      <c r="Z638" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA638" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB638" s="34">
         <v>81</v>
       </c>
-      <c r="AI638" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ638" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM638" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN638" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="639" spans="1:40">
-      <c r="A639" s="21">
+      <c r="AI638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN638" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" s="34" customFormat="1" spans="1:40">
+      <c r="A639" s="34">
         <v>638</v>
       </c>
-      <c r="B639" s="36">
+      <c r="B639" s="34">
         <v>10555</v>
       </c>
-      <c r="F639" s="21">
-        <v>0</v>
-      </c>
-      <c r="G639" s="36" t="s">
+      <c r="C639" s="34"/>
+      <c r="D639" s="34"/>
+      <c r="E639" s="34"/>
+      <c r="F639" s="34">
+        <v>1</v>
+      </c>
+      <c r="G639" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J639" s="33" t="s">
+      <c r="H639" s="34"/>
+      <c r="I639" s="34"/>
+      <c r="J639" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="K639" s="36" t="s">
+      <c r="K639" s="34" t="s">
         <v>1627</v>
       </c>
-      <c r="M639" s="33">
+      <c r="L639" s="34"/>
+      <c r="M639" s="34">
         <v>-31</v>
       </c>
-      <c r="N639" s="33">
-        <v>0</v>
-      </c>
-      <c r="O639" s="33">
-        <v>0</v>
-      </c>
-      <c r="P639" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q639" s="36">
+      <c r="N639" s="34">
+        <v>0</v>
+      </c>
+      <c r="O639" s="34">
+        <v>0</v>
+      </c>
+      <c r="P639" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q639" s="34">
         <v>3000</v>
       </c>
-      <c r="R639" s="36" t="s">
+      <c r="R639" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S639" s="37" t="s">
+      <c r="S639" s="68" t="s">
         <v>1628</v>
       </c>
-      <c r="X639" s="33" t="s">
+      <c r="X639" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y639" s="33">
+      <c r="Y639" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z639" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA639" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB639" s="36">
+      <c r="Z639" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA639" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB639" s="34">
         <v>81</v>
       </c>
-      <c r="AI639" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ639" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM639" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN639" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="640" spans="1:40">
-      <c r="A640" s="21">
+      <c r="AI639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN639" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" s="34" customFormat="1" spans="1:40">
+      <c r="A640" s="34">
         <v>639</v>
       </c>
-      <c r="B640" s="36">
+      <c r="B640" s="34">
         <v>10556</v>
       </c>
-      <c r="F640" s="21">
-        <v>0</v>
-      </c>
-      <c r="G640" s="36" t="s">
+      <c r="C640" s="34"/>
+      <c r="D640" s="34"/>
+      <c r="E640" s="34"/>
+      <c r="F640" s="34">
+        <v>1</v>
+      </c>
+      <c r="G640" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J640" s="33" t="s">
+      <c r="H640" s="34"/>
+      <c r="I640" s="34"/>
+      <c r="J640" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="K640" s="36" t="s">
+      <c r="K640" s="34" t="s">
         <v>1629</v>
       </c>
-      <c r="M640" s="33">
+      <c r="L640" s="34"/>
+      <c r="M640" s="34">
         <v>-31</v>
       </c>
-      <c r="N640" s="33">
-        <v>0</v>
-      </c>
-      <c r="O640" s="33">
-        <v>0</v>
-      </c>
-      <c r="P640" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q640" s="36">
+      <c r="N640" s="34">
+        <v>0</v>
+      </c>
+      <c r="O640" s="34">
+        <v>0</v>
+      </c>
+      <c r="P640" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q640" s="34">
         <v>4800</v>
       </c>
-      <c r="R640" s="36" t="s">
+      <c r="R640" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S640" s="37" t="s">
+      <c r="S640" s="68" t="s">
         <v>1630</v>
       </c>
-      <c r="X640" s="33" t="s">
+      <c r="X640" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y640" s="33">
+      <c r="Y640" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z640" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA640" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB640" s="36">
+      <c r="Z640" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA640" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB640" s="34">
         <v>81</v>
       </c>
-      <c r="AI640" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ640" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM640" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN640" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="641" spans="1:40">
-      <c r="A641" s="21">
+      <c r="AI640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN640" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" s="34" customFormat="1" spans="1:40">
+      <c r="A641" s="34">
         <v>640</v>
       </c>
-      <c r="B641" s="36">
+      <c r="B641" s="34">
         <v>10557</v>
       </c>
-      <c r="F641" s="21">
-        <v>0</v>
-      </c>
-      <c r="G641" s="36" t="s">
+      <c r="C641" s="34"/>
+      <c r="D641" s="34"/>
+      <c r="E641" s="34"/>
+      <c r="F641" s="34">
+        <v>1</v>
+      </c>
+      <c r="G641" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J641" s="33" t="s">
+      <c r="H641" s="34"/>
+      <c r="I641" s="34"/>
+      <c r="J641" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="K641" s="36" t="s">
+      <c r="K641" s="34" t="s">
         <v>1629</v>
       </c>
-      <c r="M641" s="33">
+      <c r="L641" s="34"/>
+      <c r="M641" s="34">
         <v>-31</v>
       </c>
-      <c r="N641" s="33">
-        <v>0</v>
-      </c>
-      <c r="O641" s="33">
-        <v>0</v>
-      </c>
-      <c r="P641" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q641" s="36">
+      <c r="N641" s="34">
+        <v>0</v>
+      </c>
+      <c r="O641" s="34">
+        <v>0</v>
+      </c>
+      <c r="P641" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q641" s="34">
         <v>4800</v>
       </c>
-      <c r="R641" s="36" t="s">
+      <c r="R641" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S641" s="37" t="s">
+      <c r="S641" s="68" t="s">
         <v>1630</v>
       </c>
-      <c r="X641" s="33" t="s">
+      <c r="X641" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y641" s="33">
+      <c r="Y641" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z641" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA641" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB641" s="36">
+      <c r="Z641" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA641" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB641" s="34">
         <v>82</v>
       </c>
-      <c r="AI641" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ641" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM641" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN641" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:40">
-      <c r="A642" s="21">
+      <c r="AI641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN641" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" s="34" customFormat="1" spans="1:40">
+      <c r="A642" s="34">
         <v>641</v>
       </c>
-      <c r="B642" s="36">
+      <c r="B642" s="34">
         <v>10558</v>
       </c>
-      <c r="F642" s="21">
-        <v>0</v>
-      </c>
-      <c r="G642" s="36" t="s">
+      <c r="C642" s="34"/>
+      <c r="D642" s="34"/>
+      <c r="E642" s="34"/>
+      <c r="F642" s="34">
+        <v>1</v>
+      </c>
+      <c r="G642" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J642" s="33" t="s">
+      <c r="H642" s="34"/>
+      <c r="I642" s="34"/>
+      <c r="J642" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="K642" s="36" t="s">
+      <c r="K642" s="34" t="s">
         <v>1631</v>
       </c>
-      <c r="M642" s="33">
+      <c r="L642" s="34"/>
+      <c r="M642" s="34">
         <v>-31</v>
       </c>
-      <c r="N642" s="33">
-        <v>0</v>
-      </c>
-      <c r="O642" s="33">
-        <v>0</v>
-      </c>
-      <c r="P642" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q642" s="36">
+      <c r="N642" s="34">
+        <v>0</v>
+      </c>
+      <c r="O642" s="34">
+        <v>0</v>
+      </c>
+      <c r="P642" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q642" s="34">
         <v>9800</v>
       </c>
-      <c r="R642" s="36" t="s">
+      <c r="R642" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S642" s="37" t="s">
+      <c r="S642" s="68" t="s">
         <v>1632</v>
       </c>
-      <c r="X642" s="33" t="s">
+      <c r="X642" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y642" s="33">
+      <c r="Y642" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z642" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA642" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB642" s="36">
+      <c r="Z642" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA642" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB642" s="34">
         <v>82</v>
       </c>
-      <c r="AI642" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ642" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM642" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN642" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="643" spans="1:40">
-      <c r="A643" s="21">
+      <c r="AI642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN642" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" s="34" customFormat="1" spans="1:40">
+      <c r="A643" s="34">
         <v>642</v>
       </c>
-      <c r="B643" s="36">
+      <c r="B643" s="34">
         <v>10559</v>
       </c>
-      <c r="F643" s="21">
-        <v>0</v>
-      </c>
-      <c r="G643" s="36" t="s">
+      <c r="C643" s="34"/>
+      <c r="D643" s="34"/>
+      <c r="E643" s="34"/>
+      <c r="F643" s="34">
+        <v>1</v>
+      </c>
+      <c r="G643" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J643" s="33" t="s">
+      <c r="H643" s="34"/>
+      <c r="I643" s="34"/>
+      <c r="J643" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="K643" s="36" t="s">
+      <c r="K643" s="34" t="s">
         <v>1633</v>
       </c>
-      <c r="M643" s="33">
+      <c r="L643" s="34"/>
+      <c r="M643" s="34">
         <v>-31</v>
       </c>
-      <c r="N643" s="33">
-        <v>0</v>
-      </c>
-      <c r="O643" s="33">
-        <v>0</v>
-      </c>
-      <c r="P643" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q643" s="36">
+      <c r="N643" s="34">
+        <v>0</v>
+      </c>
+      <c r="O643" s="34">
+        <v>0</v>
+      </c>
+      <c r="P643" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q643" s="34">
         <v>19800</v>
       </c>
-      <c r="R643" s="36" t="s">
+      <c r="R643" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S643" s="37" t="s">
+      <c r="S643" s="68" t="s">
         <v>1634</v>
       </c>
-      <c r="X643" s="33" t="s">
+      <c r="X643" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y643" s="33">
+      <c r="Y643" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z643" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA643" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB643" s="36">
+      <c r="Z643" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA643" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB643" s="34">
         <v>82</v>
       </c>
-      <c r="AI643" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ643" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM643" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN643" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:40">
-      <c r="A644" s="21">
+      <c r="AI643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN643" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" s="34" customFormat="1" spans="1:40">
+      <c r="A644" s="34">
         <v>643</v>
       </c>
-      <c r="B644" s="36">
+      <c r="B644" s="34">
         <v>10560</v>
       </c>
-      <c r="F644" s="21">
-        <v>0</v>
-      </c>
-      <c r="G644" s="36" t="s">
+      <c r="C644" s="34"/>
+      <c r="D644" s="34"/>
+      <c r="E644" s="34"/>
+      <c r="F644" s="34">
+        <v>1</v>
+      </c>
+      <c r="G644" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J644" s="33" t="s">
+      <c r="H644" s="34"/>
+      <c r="I644" s="34"/>
+      <c r="J644" s="34" t="s">
         <v>1442</v>
       </c>
-      <c r="K644" s="36" t="s">
+      <c r="K644" s="34" t="s">
         <v>1631</v>
       </c>
-      <c r="M644" s="33">
+      <c r="L644" s="34"/>
+      <c r="M644" s="34">
         <v>-31</v>
       </c>
-      <c r="N644" s="33">
-        <v>0</v>
-      </c>
-      <c r="O644" s="33">
-        <v>0</v>
-      </c>
-      <c r="P644" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q644" s="36">
+      <c r="N644" s="34">
+        <v>0</v>
+      </c>
+      <c r="O644" s="34">
+        <v>0</v>
+      </c>
+      <c r="P644" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q644" s="34">
         <v>9800</v>
       </c>
-      <c r="R644" s="36" t="s">
+      <c r="R644" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S644" s="37" t="s">
+      <c r="S644" s="68" t="s">
         <v>1632</v>
       </c>
-      <c r="X644" s="33" t="s">
+      <c r="X644" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y644" s="33">
+      <c r="Y644" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z644" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA644" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB644" s="36">
+      <c r="Z644" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA644" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB644" s="34">
         <v>83</v>
       </c>
-      <c r="AI644" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ644" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM644" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN644" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:40">
-      <c r="A645" s="21">
+      <c r="AI644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN644" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" s="34" customFormat="1" spans="1:40">
+      <c r="A645" s="34">
         <v>644</v>
       </c>
-      <c r="B645" s="36">
+      <c r="B645" s="34">
         <v>10561</v>
       </c>
-      <c r="F645" s="21">
-        <v>0</v>
-      </c>
-      <c r="G645" s="36" t="s">
+      <c r="C645" s="34"/>
+      <c r="D645" s="34"/>
+      <c r="E645" s="34"/>
+      <c r="F645" s="34">
+        <v>1</v>
+      </c>
+      <c r="G645" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J645" s="33" t="s">
+      <c r="H645" s="34"/>
+      <c r="I645" s="34"/>
+      <c r="J645" s="34" t="s">
         <v>1442</v>
       </c>
-      <c r="K645" s="36" t="s">
+      <c r="K645" s="34" t="s">
         <v>1633</v>
       </c>
-      <c r="M645" s="33">
+      <c r="L645" s="34"/>
+      <c r="M645" s="34">
         <v>-31</v>
       </c>
-      <c r="N645" s="33">
-        <v>0</v>
-      </c>
-      <c r="O645" s="33">
-        <v>0</v>
-      </c>
-      <c r="P645" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q645" s="36">
+      <c r="N645" s="34">
+        <v>0</v>
+      </c>
+      <c r="O645" s="34">
+        <v>0</v>
+      </c>
+      <c r="P645" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q645" s="34">
         <v>19800</v>
       </c>
-      <c r="R645" s="36" t="s">
+      <c r="R645" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S645" s="37" t="s">
+      <c r="S645" s="68" t="s">
         <v>1634</v>
       </c>
-      <c r="X645" s="33" t="s">
+      <c r="X645" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y645" s="33">
+      <c r="Y645" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z645" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA645" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB645" s="36">
+      <c r="Z645" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA645" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB645" s="34">
         <v>83</v>
       </c>
-      <c r="AI645" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ645" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM645" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN645" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="646" spans="1:40">
-      <c r="A646" s="21">
+      <c r="AI645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN645" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" s="34" customFormat="1" spans="1:40">
+      <c r="A646" s="34">
         <v>645</v>
       </c>
-      <c r="B646" s="36">
+      <c r="B646" s="34">
         <v>10562</v>
       </c>
-      <c r="F646" s="21">
-        <v>0</v>
-      </c>
-      <c r="G646" s="36" t="s">
+      <c r="C646" s="34"/>
+      <c r="D646" s="34"/>
+      <c r="E646" s="34"/>
+      <c r="F646" s="34">
+        <v>1</v>
+      </c>
+      <c r="G646" s="34" t="s">
         <v>1617</v>
       </c>
-      <c r="J646" s="33" t="s">
+      <c r="H646" s="34"/>
+      <c r="I646" s="34"/>
+      <c r="J646" s="34" t="s">
         <v>1442</v>
       </c>
-      <c r="K646" s="36" t="s">
+      <c r="K646" s="34" t="s">
         <v>1635</v>
       </c>
-      <c r="M646" s="33">
+      <c r="L646" s="34"/>
+      <c r="M646" s="34">
         <v>-31</v>
       </c>
-      <c r="N646" s="33">
-        <v>0</v>
-      </c>
-      <c r="O646" s="33">
-        <v>0</v>
-      </c>
-      <c r="P646" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q646" s="36">
+      <c r="N646" s="34">
+        <v>0</v>
+      </c>
+      <c r="O646" s="34">
+        <v>0</v>
+      </c>
+      <c r="P646" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q646" s="34">
         <v>49800</v>
       </c>
-      <c r="R646" s="36" t="s">
+      <c r="R646" s="34" t="s">
         <v>1619</v>
       </c>
-      <c r="S646" s="37" t="s">
+      <c r="S646" s="68" t="s">
         <v>1636</v>
       </c>
-      <c r="X646" s="33" t="s">
+      <c r="X646" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="Y646" s="33">
+      <c r="Y646" s="34">
         <v>99999999</v>
       </c>
-      <c r="Z646" s="36">
-        <v>1624320000</v>
-      </c>
-      <c r="AA646" s="36">
-        <v>1624895999</v>
-      </c>
-      <c r="AB646" s="36">
+      <c r="Z646" s="34">
+        <v>1627919999</v>
+      </c>
+      <c r="AA646" s="34">
+        <v>1627344000</v>
+      </c>
+      <c r="AB646" s="34">
         <v>83</v>
       </c>
-      <c r="AI646" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ646" s="36">
-        <v>1</v>
-      </c>
-      <c r="AM646" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN646" s="36">
+      <c r="AI646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN646" s="34">
         <v>1</v>
       </c>
     </row>
@@ -56382,8 +56454,8 @@
       <c r="B662" s="34">
         <v>10578</v>
       </c>
-      <c r="F662" s="34">
-        <v>1</v>
+      <c r="F662" s="36">
+        <v>0</v>
       </c>
       <c r="G662" s="34" t="s">
         <v>1587</v>
@@ -56453,8 +56525,8 @@
       <c r="B663" s="34">
         <v>10579</v>
       </c>
-      <c r="F663" s="34">
-        <v>1</v>
+      <c r="F663" s="36">
+        <v>0</v>
       </c>
       <c r="G663" s="34" t="s">
         <v>1587</v>
@@ -56524,8 +56596,8 @@
       <c r="B664" s="34">
         <v>10580</v>
       </c>
-      <c r="F664" s="34">
-        <v>1</v>
+      <c r="F664" s="36">
+        <v>0</v>
       </c>
       <c r="G664" s="34" t="s">
         <v>1587</v>
@@ -56595,8 +56667,8 @@
       <c r="B665" s="34">
         <v>10581</v>
       </c>
-      <c r="F665" s="34">
-        <v>1</v>
+      <c r="F665" s="36">
+        <v>0</v>
       </c>
       <c r="G665" s="34" t="s">
         <v>1587</v>
@@ -56666,8 +56738,8 @@
       <c r="B666" s="34">
         <v>10582</v>
       </c>
-      <c r="F666" s="34">
-        <v>1</v>
+      <c r="F666" s="36">
+        <v>0</v>
       </c>
       <c r="G666" s="34" t="s">
         <v>1587</v>
@@ -56737,8 +56809,8 @@
       <c r="B667" s="34">
         <v>10583</v>
       </c>
-      <c r="F667" s="34">
-        <v>1</v>
+      <c r="F667" s="36">
+        <v>0</v>
       </c>
       <c r="G667" s="34" t="s">
         <v>1587</v>
@@ -56808,8 +56880,8 @@
       <c r="B668" s="34">
         <v>10584</v>
       </c>
-      <c r="F668" s="34">
-        <v>1</v>
+      <c r="F668" s="36">
+        <v>0</v>
       </c>
       <c r="G668" s="34" t="s">
         <v>1587</v>
@@ -56879,8 +56951,8 @@
       <c r="B669" s="34">
         <v>10585</v>
       </c>
-      <c r="F669" s="34">
-        <v>1</v>
+      <c r="F669" s="36">
+        <v>0</v>
       </c>
       <c r="G669" s="34" t="s">
         <v>1587</v>
@@ -56950,8 +57022,8 @@
       <c r="B670" s="34">
         <v>10586</v>
       </c>
-      <c r="F670" s="34">
-        <v>1</v>
+      <c r="F670" s="36">
+        <v>0</v>
       </c>
       <c r="G670" s="34" t="s">
         <v>1587</v>
@@ -57021,11 +57093,8 @@
       <c r="B671" s="35">
         <v>10587</v>
       </c>
-      <c r="C671" s="35"/>
-      <c r="D671" s="35"/>
-      <c r="E671" s="35"/>
-      <c r="F671" s="35">
-        <v>1</v>
+      <c r="F671" s="36">
+        <v>0</v>
       </c>
       <c r="G671" s="35" t="s">
         <v>1646</v>
@@ -57033,14 +57102,12 @@
       <c r="H671" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I671" s="35"/>
       <c r="J671" s="35" t="s">
         <v>1539</v>
       </c>
       <c r="K671" s="35" t="s">
         <v>1560</v>
       </c>
-      <c r="L671" s="35"/>
       <c r="M671" s="35">
         <v>-31</v>
       </c>
@@ -57097,11 +57164,8 @@
       <c r="B672" s="35">
         <v>10588</v>
       </c>
-      <c r="C672" s="35"/>
-      <c r="D672" s="35"/>
-      <c r="E672" s="35"/>
-      <c r="F672" s="35">
-        <v>1</v>
+      <c r="F672" s="36">
+        <v>0</v>
       </c>
       <c r="G672" s="35" t="s">
         <v>1646</v>
@@ -57109,14 +57173,12 @@
       <c r="H672" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I672" s="35"/>
       <c r="J672" s="35" t="s">
         <v>1539</v>
       </c>
       <c r="K672" s="35" t="s">
         <v>1562</v>
       </c>
-      <c r="L672" s="35"/>
       <c r="M672" s="35">
         <v>-31</v>
       </c>
@@ -57173,11 +57235,8 @@
       <c r="B673" s="35">
         <v>10589</v>
       </c>
-      <c r="C673" s="35"/>
-      <c r="D673" s="35"/>
-      <c r="E673" s="35"/>
-      <c r="F673" s="35">
-        <v>1</v>
+      <c r="F673" s="36">
+        <v>0</v>
       </c>
       <c r="G673" s="35" t="s">
         <v>1646</v>
@@ -57185,14 +57244,12 @@
       <c r="H673" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I673" s="35"/>
       <c r="J673" s="35" t="s">
         <v>1539</v>
       </c>
       <c r="K673" s="35" t="s">
         <v>1564</v>
       </c>
-      <c r="L673" s="35"/>
       <c r="M673" s="35">
         <v>-31</v>
       </c>
@@ -57249,11 +57306,8 @@
       <c r="B674" s="35">
         <v>10590</v>
       </c>
-      <c r="C674" s="35"/>
-      <c r="D674" s="35"/>
-      <c r="E674" s="35"/>
-      <c r="F674" s="35">
-        <v>1</v>
+      <c r="F674" s="36">
+        <v>0</v>
       </c>
       <c r="G674" s="35" t="s">
         <v>1646</v>
@@ -57261,14 +57315,12 @@
       <c r="H674" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I674" s="35"/>
       <c r="J674" s="35" t="s">
         <v>1546</v>
       </c>
       <c r="K674" s="35" t="s">
         <v>1566</v>
       </c>
-      <c r="L674" s="35"/>
       <c r="M674" s="35">
         <v>-31</v>
       </c>
@@ -57325,11 +57377,8 @@
       <c r="B675" s="35">
         <v>10591</v>
       </c>
-      <c r="C675" s="35"/>
-      <c r="D675" s="35"/>
-      <c r="E675" s="35"/>
-      <c r="F675" s="35">
-        <v>1</v>
+      <c r="F675" s="36">
+        <v>0</v>
       </c>
       <c r="G675" s="35" t="s">
         <v>1646</v>
@@ -57337,14 +57386,12 @@
       <c r="H675" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I675" s="35"/>
       <c r="J675" s="35" t="s">
         <v>1546</v>
       </c>
       <c r="K675" s="35" t="s">
         <v>1567</v>
       </c>
-      <c r="L675" s="35"/>
       <c r="M675" s="35">
         <v>-31</v>
       </c>
@@ -57401,11 +57448,8 @@
       <c r="B676" s="35">
         <v>10592</v>
       </c>
-      <c r="C676" s="35"/>
-      <c r="D676" s="35"/>
-      <c r="E676" s="35"/>
-      <c r="F676" s="35">
-        <v>1</v>
+      <c r="F676" s="36">
+        <v>0</v>
       </c>
       <c r="G676" s="35" t="s">
         <v>1646</v>
@@ -57413,14 +57457,12 @@
       <c r="H676" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I676" s="35"/>
       <c r="J676" s="35" t="s">
         <v>1546</v>
       </c>
       <c r="K676" s="35" t="s">
         <v>1568</v>
       </c>
-      <c r="L676" s="35"/>
       <c r="M676" s="35">
         <v>-31</v>
       </c>
@@ -57477,11 +57519,8 @@
       <c r="B677" s="35">
         <v>10593</v>
       </c>
-      <c r="C677" s="35"/>
-      <c r="D677" s="35"/>
-      <c r="E677" s="35"/>
-      <c r="F677" s="35">
-        <v>1</v>
+      <c r="F677" s="36">
+        <v>0</v>
       </c>
       <c r="G677" s="35" t="s">
         <v>1646</v>
@@ -57489,14 +57528,12 @@
       <c r="H677" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I677" s="35"/>
       <c r="J677" s="35" t="s">
         <v>1553</v>
       </c>
       <c r="K677" s="35" t="s">
         <v>1568</v>
       </c>
-      <c r="L677" s="35"/>
       <c r="M677" s="35">
         <v>-31</v>
       </c>
@@ -57553,11 +57590,8 @@
       <c r="B678" s="35">
         <v>10594</v>
       </c>
-      <c r="C678" s="35"/>
-      <c r="D678" s="35"/>
-      <c r="E678" s="35"/>
-      <c r="F678" s="35">
-        <v>1</v>
+      <c r="F678" s="36">
+        <v>0</v>
       </c>
       <c r="G678" s="35" t="s">
         <v>1646</v>
@@ -57565,14 +57599,12 @@
       <c r="H678" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I678" s="35"/>
       <c r="J678" s="35" t="s">
         <v>1553</v>
       </c>
       <c r="K678" s="35" t="s">
         <v>1569</v>
       </c>
-      <c r="L678" s="35"/>
       <c r="M678" s="35">
         <v>-31</v>
       </c>
@@ -57629,11 +57661,8 @@
       <c r="B679" s="35">
         <v>10595</v>
       </c>
-      <c r="C679" s="35"/>
-      <c r="D679" s="35"/>
-      <c r="E679" s="35"/>
-      <c r="F679" s="35">
-        <v>1</v>
+      <c r="F679" s="36">
+        <v>0</v>
       </c>
       <c r="G679" s="35" t="s">
         <v>1646</v>
@@ -57641,14 +57670,12 @@
       <c r="H679" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I679" s="35"/>
       <c r="J679" s="35" t="s">
         <v>1553</v>
       </c>
       <c r="K679" s="35" t="s">
         <v>1570</v>
       </c>
-      <c r="L679" s="35"/>
       <c r="M679" s="35">
         <v>-31</v>
       </c>
@@ -57705,11 +57732,8 @@
       <c r="B680" s="35">
         <v>10596</v>
       </c>
-      <c r="C680" s="35"/>
-      <c r="D680" s="35"/>
-      <c r="E680" s="35"/>
-      <c r="F680" s="35">
-        <v>1</v>
+      <c r="F680" s="36">
+        <v>0</v>
       </c>
       <c r="G680" s="35" t="s">
         <v>1646</v>
@@ -57717,14 +57741,12 @@
       <c r="H680" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I680" s="35"/>
       <c r="J680" s="35" t="s">
         <v>1442</v>
       </c>
       <c r="K680" s="35" t="s">
         <v>1569</v>
       </c>
-      <c r="L680" s="35"/>
       <c r="M680" s="35">
         <v>-31</v>
       </c>
@@ -57781,11 +57803,8 @@
       <c r="B681" s="35">
         <v>10597</v>
       </c>
-      <c r="C681" s="35"/>
-      <c r="D681" s="35"/>
-      <c r="E681" s="35"/>
-      <c r="F681" s="35">
-        <v>1</v>
+      <c r="F681" s="36">
+        <v>0</v>
       </c>
       <c r="G681" s="35" t="s">
         <v>1646</v>
@@ -57793,14 +57812,12 @@
       <c r="H681" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I681" s="35"/>
       <c r="J681" s="35" t="s">
         <v>1442</v>
       </c>
       <c r="K681" s="35" t="s">
         <v>1570</v>
       </c>
-      <c r="L681" s="35"/>
       <c r="M681" s="35">
         <v>-31</v>
       </c>
@@ -57857,11 +57874,8 @@
       <c r="B682" s="35">
         <v>10598</v>
       </c>
-      <c r="C682" s="35"/>
-      <c r="D682" s="35"/>
-      <c r="E682" s="35"/>
-      <c r="F682" s="35">
-        <v>1</v>
+      <c r="F682" s="36">
+        <v>0</v>
       </c>
       <c r="G682" s="35" t="s">
         <v>1646</v>
@@ -57869,14 +57883,12 @@
       <c r="H682" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="I682" s="35"/>
       <c r="J682" s="35" t="s">
         <v>1442</v>
       </c>
       <c r="K682" s="35" t="s">
         <v>1571</v>
       </c>
-      <c r="L682" s="35"/>
       <c r="M682" s="35">
         <v>-31</v>
       </c>
@@ -57933,8 +57945,8 @@
       <c r="B683" s="36">
         <v>10599</v>
       </c>
-      <c r="F683" s="21">
-        <v>1</v>
+      <c r="F683" s="36">
+        <v>0</v>
       </c>
       <c r="G683" s="36" t="s">
         <v>1649</v>
@@ -57998,8 +58010,8 @@
       <c r="B684" s="36">
         <v>10600</v>
       </c>
-      <c r="F684" s="21">
-        <v>1</v>
+      <c r="F684" s="36">
+        <v>0</v>
       </c>
       <c r="G684" s="36" t="s">
         <v>1649</v>
@@ -58063,8 +58075,8 @@
       <c r="B685" s="36">
         <v>10601</v>
       </c>
-      <c r="F685" s="21">
-        <v>1</v>
+      <c r="F685" s="36">
+        <v>0</v>
       </c>
       <c r="G685" s="36" t="s">
         <v>1649</v>
@@ -58128,8 +58140,8 @@
       <c r="B686" s="36">
         <v>10602</v>
       </c>
-      <c r="F686" s="21">
-        <v>1</v>
+      <c r="F686" s="36">
+        <v>0</v>
       </c>
       <c r="G686" s="36" t="s">
         <v>1649</v>
@@ -58193,8 +58205,8 @@
       <c r="B687" s="36">
         <v>10603</v>
       </c>
-      <c r="F687" s="21">
-        <v>1</v>
+      <c r="F687" s="36">
+        <v>0</v>
       </c>
       <c r="G687" s="36" t="s">
         <v>1649</v>
@@ -58258,8 +58270,8 @@
       <c r="B688" s="36">
         <v>10604</v>
       </c>
-      <c r="F688" s="21">
-        <v>1</v>
+      <c r="F688" s="36">
+        <v>0</v>
       </c>
       <c r="G688" s="36" t="s">
         <v>1649</v>
@@ -58723,7 +58735,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
